--- a/quicktype/MCX/FireWar/Map.xlsx
+++ b/quicktype/MCX/FireWar/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimge.MADELEINESLAPTO\Documents\GitHub\trs80mc10\quicktype\MCX\FireWar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cool_\Documents\Github\trs80mc10\quicktype\MCX\FireWar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BE043-0E91-472A-84BA-47B946A1554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27320588-6102-42E9-A630-558426EC11B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C231B5E9-DED8-4972-B813-B5D67BE3F680}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{C231B5E9-DED8-4972-B813-B5D67BE3F680}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -168,94 +168,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -592,7 +504,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <f t="shared" ref="D1:L1" si="0">C1+1</f>
+        <f t="shared" ref="D1:K1" si="0">C1+1</f>
         <v>3</v>
       </c>
       <c r="E1" s="2">
@@ -708,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -742,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -960,20 +872,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K11">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="River">
-      <formula>NOT(ISERROR(SEARCH("River",B2)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Hill">
+      <formula>NOT(ISERROR(SEARCH("Hill",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Plain">
+      <formula>NOT(ISERROR(SEARCH("Plain",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Mountain">
+      <formula>NOT(ISERROR(SEARCH("Mountain",B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Forest">
       <formula>NOT(ISERROR(SEARCH("Forest",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Mountain">
-      <formula>NOT(ISERROR(SEARCH("Mountain",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Plain">
-      <formula>NOT(ISERROR(SEARCH("Plain",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Hill">
-      <formula>NOT(ISERROR(SEARCH("Hill",B2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="River">
+      <formula>NOT(ISERROR(SEARCH("River",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
